--- a/public/assets/files/StudentTemplate.xlsx
+++ b/public/assets/files/StudentTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuyên ngành\Chuyên ngành 6 - SPRING 2024\OJT\Team-Project\fresher-academy-management-system\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94302DCE-3035-4CB6-B4C6-1922AAA269F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042F9F5D-F64F-4A9B-85E4-5C93307F8F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,6 @@
     <t>RECer</t>
   </si>
   <si>
-    <t>2002-03-11T07:24:58.993Z</t>
-  </si>
-  <si>
-    <t>(375) 896-1750 x92793</t>
-  </si>
-  <si>
     <t>Woodrow Johnson</t>
   </si>
   <si>
@@ -100,28 +94,34 @@
     <t>Legacy Operations Producer</t>
   </si>
   <si>
-    <t>2013-02-14T19:28:15.493Z</t>
-  </si>
-  <si>
     <t>ClassCode 14</t>
   </si>
   <si>
-    <t>2000-03-30T23:36:45.031Z</t>
-  </si>
-  <si>
-    <t>2068-03-28T13:20:08.645Z</t>
-  </si>
-  <si>
     <t>Class 14</t>
   </si>
   <si>
     <t>1, 2, 3, 7, 12</t>
   </si>
   <si>
-    <t>Example 1</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>0987654324</t>
+  </si>
+  <si>
+    <t>30/11/2004</t>
+  </si>
+  <si>
+    <t>30/11/2034</t>
+  </si>
+  <si>
+    <t>30/11/2024</t>
+  </si>
+  <si>
+    <t>30/11/2025</t>
+  </si>
+  <si>
+    <t>Student Example</t>
   </si>
 </sst>
 </file>
@@ -180,12 +180,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -528,13 +529,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.796875" customWidth="1"/>
@@ -556,16 +557,16 @@
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -574,16 +575,16 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -592,81 +593,81 @@
         <v>2</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>839</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <v>74</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
       </c>
       <c r="S2">
         <v>1</v>
